--- a/RawDataAmendmends/OtherData/hourly_wages_by_employees_class.xlsx
+++ b/RawDataAmendmends/OtherData/hourly_wages_by_employees_class.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimi2013-my.sharepoint.com/personal/stefano_chiesa3_studenti_unimi_it/Documents/causal_inference_project/RawDataAmendmends/OtherData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0B1DA0EB-2B01-470B-BCE4-2F2EA9C3D820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{057CAB25-A522-4C40-B5B0-2E72E5E3965D}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0B1DA0EB-2B01-470B-BCE4-2F2EA9C3D820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{336F95EC-402E-44A6-88FB-177AA431B489}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,104 +71,104 @@
     <t>y2021</t>
   </si>
   <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accommodation and food service activities  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executive; white collar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blu collar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total  </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrative and support service activities  </t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arts, entertainment and recreation  </t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction  </t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education  </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity, gas, steam and air conditioning supply  </t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human health and social work activities  </t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information and communication  </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturing  </t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
     <t xml:space="preserve">Mining and quarrying  </t>
   </si>
   <si>
-    <t xml:space="preserve">Executive; white collar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blu collar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total  </t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturing  </t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity, gas, steam and air conditioning supply  </t>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other service activities  </t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional, scientific and technical activities  </t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation and storage  </t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
     <t xml:space="preserve">Water supply sewerage, waste management and remediation activities  </t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction  </t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transportation and storage  </t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accommodation and food service activities  </t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information and communication  </t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professional, scientific and technical activities  </t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrative and support service activities  </t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education  </t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human health and social work activities  </t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arts, entertainment and recreation  </t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other service activities  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -247,7 +247,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -581,16 +581,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -636,31 +636,31 @@
         <v>13</v>
       </c>
       <c r="D2" s="1">
-        <v>27.490074941809763</v>
+        <v>12.264644504704208</v>
       </c>
       <c r="E2" s="1">
-        <v>27.448586567354369</v>
+        <v>12.249612575172746</v>
       </c>
       <c r="F2" s="1">
-        <v>27.546418492431219</v>
+        <v>12.30228398691103</v>
       </c>
       <c r="G2" s="1">
-        <v>26.582631948828023</v>
+        <v>12.26499876232241</v>
       </c>
       <c r="H2" s="1">
-        <v>28.031881593332148</v>
+        <v>12.207432306773679</v>
       </c>
       <c r="I2" s="1">
-        <v>27.991399859593621</v>
+        <v>12.293047886963878</v>
       </c>
       <c r="J2" s="1">
-        <v>28.13</v>
+        <v>12.92</v>
       </c>
       <c r="K2" s="1">
-        <v>27.759841639330553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>12.270085590227437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -671,31 +671,31 @@
         <v>14</v>
       </c>
       <c r="D3" s="1">
-        <v>13.066524028062908</v>
+        <v>10.373031270114454</v>
       </c>
       <c r="E3" s="1">
-        <v>13.143669868830488</v>
+        <v>10.358732781689705</v>
       </c>
       <c r="F3" s="1">
-        <v>13.382334002484322</v>
-      </c>
-      <c r="G3" s="2">
-        <v>13.210023521971113</v>
+        <v>10.337621577630088</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10.293656790582107</v>
       </c>
       <c r="H3" s="1">
-        <v>13.23225378437937</v>
+        <v>10.268309314833498</v>
       </c>
       <c r="I3" s="1">
-        <v>13.641188800643912</v>
+        <v>10.29580208891938</v>
       </c>
       <c r="J3" s="1">
-        <v>13.73</v>
+        <v>10.5</v>
       </c>
       <c r="K3" s="1">
-        <v>13.585438765499818</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10.306871895791046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -706,31 +706,31 @@
         <v>15</v>
       </c>
       <c r="D4" s="1">
-        <v>15.883382866528081</v>
+        <v>10.331909243275549</v>
       </c>
       <c r="E4" s="1">
-        <v>15.147591389097842</v>
+        <v>10.327903219839438</v>
       </c>
       <c r="F4" s="1">
-        <v>15.624723558626968</v>
+        <v>10.306763005756565</v>
       </c>
       <c r="G4" s="1">
-        <v>15.597989312481275</v>
+        <v>10.253010564360656</v>
       </c>
       <c r="H4" s="1">
-        <v>15.43260578041512</v>
+        <v>10.218072967892041</v>
       </c>
       <c r="I4" s="1">
-        <v>16.127759819209309</v>
+        <v>10.235884714978045</v>
       </c>
       <c r="J4" s="1">
-        <v>16.059999999999999</v>
+        <v>10.48</v>
       </c>
       <c r="K4" s="1">
-        <v>15.715525623963302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10.277423690374501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -741,31 +741,31 @@
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>20.026427070548028</v>
-      </c>
-      <c r="E5" s="1">
-        <v>20.131703888224337</v>
+        <v>12.130997917477758</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12.331824740106793</v>
       </c>
       <c r="F5" s="1">
-        <v>20.243223149030857</v>
+        <v>12.405145893156105</v>
       </c>
       <c r="G5" s="1">
-        <v>20.201174432060437</v>
+        <v>12.447906780318933</v>
       </c>
       <c r="H5" s="1">
-        <v>20.084491507193896</v>
+        <v>12.317952270044881</v>
       </c>
       <c r="I5" s="1">
-        <v>20.311989766112532</v>
+        <v>12.442841321817214</v>
       </c>
       <c r="J5" s="1">
-        <v>20.37</v>
+        <v>12.63</v>
       </c>
       <c r="K5" s="1">
-        <v>20.181836778806087</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>12.417326617310167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -776,31 +776,31 @@
         <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>12.316047038252842</v>
+        <v>9.8692864413378363</v>
       </c>
       <c r="E6" s="1">
-        <v>12.506525590591638</v>
+        <v>10.245691054905393</v>
       </c>
       <c r="F6" s="1">
-        <v>12.508007799401181</v>
-      </c>
-      <c r="G6" s="1">
-        <v>12.427583667208209</v>
+        <v>10.193614908886982</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10.161556555362395</v>
       </c>
       <c r="H6" s="1">
-        <v>12.327999539433172</v>
+        <v>9.9668912331847643</v>
       </c>
       <c r="I6" s="1">
-        <v>12.422868863836769</v>
+        <v>9.9662565322420384</v>
       </c>
       <c r="J6" s="1">
-        <v>12.6</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="K6" s="1">
-        <v>12.515487302031985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.9731255677368598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -811,31 +811,31 @@
         <v>15</v>
       </c>
       <c r="D7" s="1">
-        <v>13.210451121999084</v>
+        <v>10.116018602371282</v>
       </c>
       <c r="E7" s="1">
-        <v>13.390306363632625</v>
+        <v>10.482051029090773</v>
       </c>
       <c r="F7" s="1">
-        <v>13.423478764982352</v>
+        <v>10.440483483875163</v>
       </c>
       <c r="G7" s="1">
-        <v>13.311639087524735</v>
+        <v>10.395272356135729</v>
       </c>
       <c r="H7" s="1">
-        <v>13.182017437437914</v>
+        <v>10.19797842911546</v>
       </c>
       <c r="I7" s="1">
-        <v>13.291670785986126</v>
+        <v>10.225898485987823</v>
       </c>
       <c r="J7" s="1">
-        <v>13.48</v>
+        <v>10.29</v>
       </c>
       <c r="K7" s="1">
-        <v>13.349853122167451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10.208711211069227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.45" customHeight="1">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -846,31 +846,31 @@
         <v>13</v>
       </c>
       <c r="D8" s="1">
-        <v>23.449835804887087</v>
+        <v>11.935668289992945</v>
       </c>
       <c r="E8" s="1">
-        <v>23.779868707172596</v>
+        <v>12.372930822573814</v>
       </c>
       <c r="F8" s="1">
-        <v>23.915393201980052</v>
+        <v>12.425718274405121</v>
       </c>
       <c r="G8" s="1">
-        <v>23.899981018212351</v>
+        <v>12.336129658209947</v>
       </c>
       <c r="H8" s="1">
-        <v>23.731650295143563</v>
+        <v>12.106959612890769</v>
       </c>
       <c r="I8" s="1">
-        <v>23.777211225719732</v>
+        <v>12.402896405856325</v>
       </c>
       <c r="J8" s="1">
-        <v>23.81</v>
+        <v>12.82</v>
       </c>
       <c r="K8" s="1">
-        <v>23.588012538653224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12.299533795643981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.45" customHeight="1">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -881,31 +881,31 @@
         <v>14</v>
       </c>
       <c r="D9" s="1">
-        <v>18.289021436604177</v>
+        <v>10.229104176178279</v>
       </c>
       <c r="E9" s="1">
-        <v>18.415524945226146</v>
+        <v>10.194308451821614</v>
       </c>
       <c r="F9" s="1">
-        <v>17.908257877267644</v>
+        <v>10.162756337013461</v>
       </c>
       <c r="G9" s="1">
-        <v>17.884339537437814</v>
+        <v>10.151394998807032</v>
       </c>
       <c r="H9" s="1">
-        <v>17.904234049934729</v>
+        <v>10.177883890338878</v>
       </c>
       <c r="I9" s="1">
-        <v>17.9452534954298</v>
+        <v>10.155994883056266</v>
       </c>
       <c r="J9" s="1">
-        <v>18.350000000000001</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="K9" s="1">
-        <v>18.277519495202789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10.022205910097771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.45" customHeight="1">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -916,31 +916,31 @@
         <v>15</v>
       </c>
       <c r="D10" s="1">
-        <v>20.87970912745536</v>
+        <v>10.516958364050632</v>
       </c>
       <c r="E10" s="1">
-        <v>21.025761181882082</v>
+        <v>10.615645797108597</v>
       </c>
       <c r="F10" s="1">
-        <v>20.798677442754265</v>
+        <v>10.65649348698982</v>
       </c>
       <c r="G10" s="1">
-        <v>21.024260513044794</v>
+        <v>10.56801881757689</v>
       </c>
       <c r="H10" s="1">
-        <v>20.737564017432817</v>
+        <v>10.519491049540775</v>
       </c>
       <c r="I10" s="1">
-        <v>20.701452696731209</v>
+        <v>10.535471584684721</v>
       </c>
       <c r="J10" s="1">
-        <v>20.89</v>
+        <v>10.73</v>
       </c>
       <c r="K10" s="1">
-        <v>20.76098481866482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10.48356112829032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.45" customHeight="1">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -951,31 +951,31 @@
         <v>13</v>
       </c>
       <c r="D11" s="1">
-        <v>19.656328828997857</v>
+        <v>16.058151480593438</v>
       </c>
       <c r="E11" s="1">
-        <v>19.700090022320602</v>
+        <v>15.825841749803716</v>
       </c>
       <c r="F11" s="1">
-        <v>19.914065049046616</v>
+        <v>15.748157846121059</v>
       </c>
       <c r="G11" s="1">
-        <v>19.286634342077825</v>
+        <v>15.5370199731491</v>
       </c>
       <c r="H11" s="1">
-        <v>18.778346486716057</v>
+        <v>15.512983935521447</v>
       </c>
       <c r="I11" s="1">
-        <v>18.794082959598715</v>
+        <v>15.658407056668853</v>
       </c>
       <c r="J11" s="1">
-        <v>18.809999999999999</v>
+        <v>15.67</v>
       </c>
       <c r="K11" s="1">
-        <v>18.895931808950252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15.381779295909114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.45" customHeight="1">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -986,31 +986,31 @@
         <v>14</v>
       </c>
       <c r="D12" s="1">
-        <v>14.567478007683036</v>
+        <v>11.082386233085611</v>
       </c>
       <c r="E12" s="1">
-        <v>14.63376535826006</v>
+        <v>11.417214405215537</v>
       </c>
       <c r="F12" s="1">
-        <v>14.56524592430269</v>
+        <v>11.37652683070535</v>
       </c>
       <c r="G12" s="1">
-        <v>14.236340734062715</v>
+        <v>11.309812446118345</v>
       </c>
       <c r="H12" s="1">
-        <v>13.945609910948038</v>
+        <v>11.192658098556279</v>
       </c>
       <c r="I12" s="1">
-        <v>14.030651731262589</v>
+        <v>11.204548927029627</v>
       </c>
       <c r="J12" s="1">
-        <v>13.99</v>
+        <v>11.41</v>
       </c>
       <c r="K12" s="1">
-        <v>13.713047655638183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11.288478743009241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.45" customHeight="1">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1021,31 +1021,31 @@
         <v>15</v>
       </c>
       <c r="D13" s="1">
-        <v>15.030100809620746</v>
+        <v>11.164630286763428</v>
       </c>
       <c r="E13" s="1">
-        <v>15.116761827247577</v>
+        <v>11.509703090766338</v>
       </c>
       <c r="F13" s="1">
-        <v>15.048696883654546</v>
+        <v>11.479388736950426</v>
       </c>
       <c r="G13" s="1">
-        <v>14.805387901163009</v>
+        <v>11.391104898561245</v>
       </c>
       <c r="H13" s="1">
-        <v>14.51830426608063</v>
+        <v>11.273036253662607</v>
       </c>
       <c r="I13" s="1">
-        <v>14.589880554715048</v>
+        <v>11.264466300970961</v>
       </c>
       <c r="J13" s="1">
-        <v>14.53</v>
+        <v>11.47</v>
       </c>
       <c r="K13" s="1">
-        <v>14.25293142160819</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>11.317926948425786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1056,31 +1056,31 @@
         <v>13</v>
       </c>
       <c r="D14" s="1">
-        <v>16.058151480593438</v>
+        <v>13.827281524582698</v>
       </c>
       <c r="E14" s="1">
-        <v>15.825841749803716</v>
+        <v>13.082010745129956</v>
       </c>
       <c r="F14" s="1">
-        <v>15.748157846121059</v>
+        <v>12.868024471258945</v>
       </c>
       <c r="G14" s="1">
-        <v>15.5370199731491</v>
+        <v>13.74858601940532</v>
       </c>
       <c r="H14" s="1">
-        <v>15.512983935521447</v>
+        <v>13.04135566600184</v>
       </c>
       <c r="I14" s="1">
-        <v>15.658407056668853</v>
+        <v>12.812331794455446</v>
       </c>
       <c r="J14" s="1">
-        <v>15.67</v>
+        <v>12.83</v>
       </c>
       <c r="K14" s="1">
-        <v>15.381779295909114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>12.456590891198893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1091,31 +1091,31 @@
         <v>14</v>
       </c>
       <c r="D15" s="1">
-        <v>11.082386233085611</v>
+        <v>9.3449805991417634</v>
       </c>
       <c r="E15" s="1">
-        <v>11.417214405215537</v>
+        <v>9.7524180653011214</v>
       </c>
       <c r="F15" s="1">
-        <v>11.37652683070535</v>
+        <v>9.5352987089184982</v>
       </c>
       <c r="G15" s="1">
-        <v>11.309812446118345</v>
+        <v>9.6026709448174614</v>
       </c>
       <c r="H15" s="1">
-        <v>11.192658098556279</v>
+        <v>9.6453786127594494</v>
       </c>
       <c r="I15" s="1">
-        <v>11.204548927029627</v>
+        <v>9.5967660596038051</v>
       </c>
       <c r="J15" s="1">
-        <v>11.41</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="K15" s="1">
-        <v>11.288478743009241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.3154489801006708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="D16" s="1">
-        <v>11.164630286763428</v>
+        <v>12.52165717244738</v>
       </c>
       <c r="E16" s="1">
-        <v>11.509703090766338</v>
+        <v>11.9824230391371</v>
       </c>
       <c r="F16" s="1">
-        <v>11.479388736950426</v>
+        <v>11.767402074436637</v>
       </c>
       <c r="G16" s="1">
-        <v>11.391104898561245</v>
+        <v>12.407260554097485</v>
       </c>
       <c r="H16" s="1">
-        <v>11.273036253662607</v>
+        <v>11.926108763901528</v>
       </c>
       <c r="I16" s="1">
-        <v>11.264466300970961</v>
+        <v>11.78375020846253</v>
       </c>
       <c r="J16" s="1">
-        <v>11.47</v>
+        <v>11.94</v>
       </c>
       <c r="K16" s="1">
-        <v>11.317926948425786</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>11.524064386341609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1161,31 +1161,31 @@
         <v>13</v>
       </c>
       <c r="D17" s="1">
-        <v>16.9217140442105</v>
+        <v>23.449835804887087</v>
       </c>
       <c r="E17" s="1">
-        <v>17.172065950598707</v>
+        <v>23.779868707172596</v>
       </c>
       <c r="F17" s="1">
-        <v>17.167652152303102</v>
+        <v>23.915393201980052</v>
       </c>
       <c r="G17" s="1">
-        <v>17.173030578562447</v>
+        <v>23.899981018212351</v>
       </c>
       <c r="H17" s="1">
-        <v>17.030121613153401</v>
+        <v>23.731650295143563</v>
       </c>
       <c r="I17" s="1">
-        <v>16.926658138427108</v>
+        <v>23.777211225719732</v>
       </c>
       <c r="J17" s="1">
-        <v>17.36</v>
+        <v>23.81</v>
       </c>
       <c r="K17" s="1">
-        <v>17.403889401178596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23.588012538653224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1196,31 +1196,31 @@
         <v>14</v>
       </c>
       <c r="D18" s="1">
-        <v>11.164630286763428</v>
+        <v>18.289021436604177</v>
       </c>
       <c r="E18" s="1">
-        <v>11.263066595964204</v>
+        <v>18.415524945226146</v>
       </c>
       <c r="F18" s="1">
-        <v>11.397099211954366</v>
+        <v>17.908257877267644</v>
       </c>
       <c r="G18" s="1">
-        <v>11.319974002673709</v>
+        <v>17.884339537437814</v>
       </c>
       <c r="H18" s="1">
-        <v>11.31322533121577</v>
+        <v>17.904234049934729</v>
       </c>
       <c r="I18" s="1">
-        <v>11.524108254716745</v>
+        <v>17.9452534954298</v>
       </c>
       <c r="J18" s="1">
-        <v>11.9</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="K18" s="1">
-        <v>11.651673276479972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18.277519495202789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1231,31 +1231,31 @@
         <v>15</v>
       </c>
       <c r="D19" s="1">
-        <v>12.172119944316664</v>
+        <v>20.87970912745536</v>
       </c>
       <c r="E19" s="1">
-        <v>12.187953451472213</v>
+        <v>21.025761181882082</v>
       </c>
       <c r="F19" s="1">
-        <v>12.271425415037507</v>
+        <v>20.798677442754265</v>
       </c>
       <c r="G19" s="1">
-        <v>12.082090744325887</v>
+        <v>21.024260513044794</v>
       </c>
       <c r="H19" s="1">
-        <v>11.986392380231274</v>
+        <v>20.737564017432817</v>
       </c>
       <c r="I19" s="1">
-        <v>12.133268223120318</v>
+        <v>20.701452696731209</v>
       </c>
       <c r="J19" s="1">
-        <v>12.48</v>
+        <v>20.89</v>
       </c>
       <c r="K19" s="1">
-        <v>12.191557042449981</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20.76098481866482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.45" customHeight="1">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1266,31 +1266,31 @@
         <v>13</v>
       </c>
       <c r="D20" s="1">
-        <v>12.264644504704208</v>
+        <v>12.665584266383558</v>
       </c>
       <c r="E20" s="1">
-        <v>12.249612575172746</v>
+        <v>12.372930822573814</v>
       </c>
       <c r="F20" s="1">
-        <v>12.30228398691103</v>
+        <v>12.415432083780612</v>
       </c>
       <c r="G20" s="1">
-        <v>12.26499876232241</v>
+        <v>12.336129658209947</v>
       </c>
       <c r="H20" s="1">
-        <v>12.207432306773679</v>
+        <v>12.177290498608805</v>
       </c>
       <c r="I20" s="1">
-        <v>12.293047886963878</v>
+        <v>12.263089199993209</v>
       </c>
       <c r="J20" s="1">
-        <v>12.92</v>
+        <v>12.62</v>
       </c>
       <c r="K20" s="1">
-        <v>12.270085590227437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12.525303370504167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.45" customHeight="1">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1301,31 +1301,31 @@
         <v>14</v>
       </c>
       <c r="D21" s="1">
-        <v>10.373031270114454</v>
+        <v>9.9001279614670175</v>
       </c>
       <c r="E21" s="1">
-        <v>10.358732781689705</v>
+        <v>9.8243537096184106</v>
       </c>
       <c r="F21" s="1">
-        <v>10.337621577630088</v>
+        <v>9.8850291901517551</v>
       </c>
       <c r="G21" s="1">
-        <v>10.293656790582107</v>
+        <v>9.8160636324800734</v>
       </c>
       <c r="H21" s="1">
-        <v>10.268309314833498</v>
+        <v>9.7558985760306527</v>
       </c>
       <c r="I21" s="1">
-        <v>10.29580208891938</v>
+        <v>9.8763804713300356</v>
       </c>
       <c r="J21" s="1">
-        <v>10.5</v>
+        <v>10.17</v>
       </c>
       <c r="K21" s="1">
-        <v>10.306871895791046</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10.081102320930862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.45" customHeight="1">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1336,31 +1336,31 @@
         <v>15</v>
       </c>
       <c r="D22" s="1">
-        <v>10.331909243275549</v>
+        <v>10.887056605600801</v>
       </c>
       <c r="E22" s="1">
-        <v>10.327903219839438</v>
+        <v>10.780070126976687</v>
       </c>
       <c r="F22" s="1">
-        <v>10.306763005756565</v>
+        <v>10.821072536981942</v>
       </c>
       <c r="G22" s="1">
-        <v>10.253010564360656</v>
+        <v>10.791573061794862</v>
       </c>
       <c r="H22" s="1">
-        <v>10.218072967892041</v>
+        <v>10.710389167918306</v>
       </c>
       <c r="I22" s="1">
-        <v>10.235884714978045</v>
+        <v>10.81508599641095</v>
       </c>
       <c r="J22" s="1">
-        <v>10.48</v>
+        <v>11.15</v>
       </c>
       <c r="K22" s="1">
-        <v>10.277423690374501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11.033260962732511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.45" customHeight="1">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>17.384257264234233</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="14.45" customHeight="1">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>14.900791940772198</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="14.45" customHeight="1">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>16.648052128820588</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="14.45" customHeight="1">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1476,31 +1476,31 @@
         <v>13</v>
       </c>
       <c r="D26" s="1">
-        <v>16.479652255692244</v>
+        <v>20.026427070548028</v>
       </c>
       <c r="E26" s="1">
-        <v>16.31911473940799</v>
+        <v>20.131703888224337</v>
       </c>
       <c r="F26" s="1">
-        <v>16.396187855465033</v>
-      </c>
-      <c r="G26" s="2">
-        <v>16.258490488579831</v>
+        <v>20.243223149030857</v>
+      </c>
+      <c r="G26" s="1">
+        <v>20.201174432060437</v>
       </c>
       <c r="H26" s="1">
-        <v>16.095725560042332</v>
+        <v>20.084491507193896</v>
       </c>
       <c r="I26" s="1">
-        <v>16.287539483052868</v>
+        <v>20.311989766112532</v>
       </c>
       <c r="J26" s="1">
-        <v>16.8</v>
+        <v>20.37</v>
       </c>
       <c r="K26" s="1">
-        <v>16.569523581043129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20.181836778806087</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.45" customHeight="1">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1511,31 +1511,31 @@
         <v>14</v>
       </c>
       <c r="D27" s="1">
-        <v>9.9206889748864722</v>
+        <v>12.316047038252842</v>
       </c>
       <c r="E27" s="1">
-        <v>10.214861493055125</v>
+        <v>12.506525590591638</v>
       </c>
       <c r="F27" s="1">
-        <v>10.224473480760503</v>
-      </c>
-      <c r="G27" s="2">
-        <v>10.161556555362395</v>
+        <v>12.508007799401181</v>
+      </c>
+      <c r="G27" s="1">
+        <v>12.427583667208209</v>
       </c>
       <c r="H27" s="1">
-        <v>10.087458465844257</v>
+        <v>12.327999539433172</v>
       </c>
       <c r="I27" s="1">
-        <v>10.126036196085598</v>
+        <v>12.422868863836769</v>
       </c>
       <c r="J27" s="1">
-        <v>10.34</v>
+        <v>12.6</v>
       </c>
       <c r="K27" s="1">
-        <v>10.218527279541409</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12.515487302031985</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.45" customHeight="1">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1546,31 +1546,31 @@
         <v>15</v>
       </c>
       <c r="D28" s="1">
-        <v>13.570268856839524</v>
+        <v>13.210451121999084</v>
       </c>
       <c r="E28" s="1">
-        <v>13.636942858434761</v>
+        <v>13.390306363632625</v>
       </c>
       <c r="F28" s="1">
-        <v>13.63948876809701</v>
+        <v>13.423478764982352</v>
       </c>
       <c r="G28" s="1">
-        <v>13.403093096522998</v>
+        <v>13.311639087524735</v>
       </c>
       <c r="H28" s="1">
-        <v>13.332726478262281</v>
+        <v>13.182017437437914</v>
       </c>
       <c r="I28" s="1">
-        <v>13.421491762859016</v>
+        <v>13.291670785986126</v>
       </c>
       <c r="J28" s="1">
-        <v>13.93</v>
+        <v>13.48</v>
       </c>
       <c r="K28" s="1">
-        <v>13.732679792582546</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13.349853122167451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.45" customHeight="1">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1581,31 +1581,31 @@
         <v>13</v>
       </c>
       <c r="D29" s="1">
-        <v>12.130997917477758</v>
-      </c>
-      <c r="E29" s="2">
-        <v>12.331824740106793</v>
+        <v>27.490074941809763</v>
+      </c>
+      <c r="E29" s="1">
+        <v>27.448586567354369</v>
       </c>
       <c r="F29" s="1">
-        <v>12.405145893156105</v>
+        <v>27.546418492431219</v>
       </c>
       <c r="G29" s="1">
-        <v>12.447906780318933</v>
+        <v>26.582631948828023</v>
       </c>
       <c r="H29" s="1">
-        <v>12.317952270044881</v>
+        <v>28.031881593332148</v>
       </c>
       <c r="I29" s="1">
-        <v>12.442841321817214</v>
+        <v>27.991399859593621</v>
       </c>
       <c r="J29" s="1">
-        <v>12.63</v>
+        <v>28.13</v>
       </c>
       <c r="K29" s="1">
-        <v>12.417326617310167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27.759841639330553</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.45" customHeight="1">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1616,31 +1616,31 @@
         <v>14</v>
       </c>
       <c r="D30" s="1">
-        <v>9.8692864413378363</v>
+        <v>13.066524028062908</v>
       </c>
       <c r="E30" s="1">
-        <v>10.245691054905393</v>
+        <v>13.143669868830488</v>
       </c>
       <c r="F30" s="1">
-        <v>10.193614908886982</v>
+        <v>13.382334002484322</v>
       </c>
       <c r="G30" s="2">
-        <v>10.161556555362395</v>
+        <v>13.210023521971113</v>
       </c>
       <c r="H30" s="1">
-        <v>9.9668912331847643</v>
+        <v>13.23225378437937</v>
       </c>
       <c r="I30" s="1">
-        <v>9.9662565322420384</v>
+        <v>13.641188800643912</v>
       </c>
       <c r="J30" s="1">
-        <v>10.029999999999999</v>
+        <v>13.73</v>
       </c>
       <c r="K30" s="1">
-        <v>9.9731255677368598</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13.585438765499818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.45" customHeight="1">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1651,31 +1651,31 @@
         <v>15</v>
       </c>
       <c r="D31" s="1">
-        <v>10.116018602371282</v>
+        <v>15.883382866528081</v>
       </c>
       <c r="E31" s="1">
-        <v>10.482051029090773</v>
+        <v>15.147591389097842</v>
       </c>
       <c r="F31" s="1">
-        <v>10.440483483875163</v>
+        <v>15.624723558626968</v>
       </c>
       <c r="G31" s="1">
-        <v>10.395272356135729</v>
+        <v>15.597989312481275</v>
       </c>
       <c r="H31" s="1">
-        <v>10.19797842911546</v>
+        <v>15.43260578041512</v>
       </c>
       <c r="I31" s="1">
-        <v>10.225898485987823</v>
+        <v>16.127759819209309</v>
       </c>
       <c r="J31" s="1">
-        <v>10.29</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="K31" s="1">
-        <v>10.208711211069227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15.715525623963302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1686,31 +1686,31 @@
         <v>13</v>
       </c>
       <c r="D32" s="1">
-        <v>13.827281524582698</v>
+        <v>12.665584266383558</v>
       </c>
       <c r="E32" s="1">
-        <v>13.082010745129956</v>
+        <v>12.270165616406258</v>
       </c>
       <c r="F32" s="1">
-        <v>12.868024471258945</v>
+        <v>12.333142558784552</v>
       </c>
       <c r="G32" s="1">
-        <v>13.74858601940532</v>
+        <v>12.376775884431396</v>
       </c>
       <c r="H32" s="1">
-        <v>13.04135566600184</v>
+        <v>12.106959612890769</v>
       </c>
       <c r="I32" s="1">
-        <v>12.812331794455446</v>
+        <v>12.283061657973654</v>
       </c>
       <c r="J32" s="1">
-        <v>12.83</v>
+        <v>12.71</v>
       </c>
       <c r="K32" s="1">
-        <v>12.456590891198893</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>12.515487302031985</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1721,31 +1721,31 @@
         <v>14</v>
       </c>
       <c r="D33" s="1">
-        <v>9.3449805991417634</v>
+        <v>9.0160043844305022</v>
       </c>
       <c r="E33" s="1">
-        <v>9.7524180653011214</v>
+        <v>9.0947207458287593</v>
       </c>
       <c r="F33" s="1">
-        <v>9.5352987089184982</v>
+        <v>9.2267129901832732</v>
       </c>
       <c r="G33" s="1">
-        <v>9.6026709448174614</v>
+        <v>9.1860471260476029</v>
       </c>
       <c r="H33" s="1">
-        <v>9.6453786127594494</v>
+        <v>9.1430151433448952</v>
       </c>
       <c r="I33" s="1">
-        <v>9.5967660596038051</v>
+        <v>9.1274132970633506</v>
       </c>
       <c r="J33" s="1">
-        <v>9.5299999999999994</v>
+        <v>9.4</v>
       </c>
       <c r="K33" s="1">
-        <v>9.3154489801006708</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.4136096648224896</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1756,31 +1756,31 @@
         <v>15</v>
       </c>
       <c r="D34" s="1">
-        <v>12.52165717244738</v>
+        <v>9.1907729984958593</v>
       </c>
       <c r="E34" s="1">
-        <v>11.9824230391371</v>
+        <v>9.2796981169303603</v>
       </c>
       <c r="F34" s="1">
-        <v>11.767402074436637</v>
+        <v>9.4015782307999007</v>
       </c>
       <c r="G34" s="1">
-        <v>12.407260554097485</v>
+        <v>9.3587935874887656</v>
       </c>
       <c r="H34" s="1">
-        <v>11.926108763901528</v>
+        <v>9.2635823760043881</v>
       </c>
       <c r="I34" s="1">
-        <v>11.78375020846253</v>
+        <v>9.2172893579753516</v>
       </c>
       <c r="J34" s="1">
-        <v>11.94</v>
+        <v>9.5</v>
       </c>
       <c r="K34" s="1">
-        <v>11.524064386341609</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9.5117703495443084</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.45" customHeight="1">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1791,31 +1791,31 @@
         <v>13</v>
       </c>
       <c r="D35" s="1">
-        <v>12.665584266383558</v>
+        <v>16.479652255692244</v>
       </c>
       <c r="E35" s="1">
-        <v>12.372930822573814</v>
+        <v>16.31911473940799</v>
       </c>
       <c r="F35" s="1">
-        <v>12.415432083780612</v>
-      </c>
-      <c r="G35" s="1">
-        <v>12.336129658209947</v>
+        <v>16.396187855465033</v>
+      </c>
+      <c r="G35" s="2">
+        <v>16.258490488579831</v>
       </c>
       <c r="H35" s="1">
-        <v>12.177290498608805</v>
+        <v>16.095725560042332</v>
       </c>
       <c r="I35" s="1">
-        <v>12.263089199993209</v>
+        <v>16.287539483052868</v>
       </c>
       <c r="J35" s="1">
-        <v>12.62</v>
+        <v>16.8</v>
       </c>
       <c r="K35" s="1">
-        <v>12.525303370504167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16.569523581043129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.45" customHeight="1">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1826,31 +1826,31 @@
         <v>14</v>
       </c>
       <c r="D36" s="1">
-        <v>9.9001279614670175</v>
+        <v>9.9206889748864722</v>
       </c>
       <c r="E36" s="1">
-        <v>9.8243537096184106</v>
+        <v>10.214861493055125</v>
       </c>
       <c r="F36" s="1">
-        <v>9.8850291901517551</v>
-      </c>
-      <c r="G36" s="1">
-        <v>9.8160636324800734</v>
+        <v>10.224473480760503</v>
+      </c>
+      <c r="G36" s="2">
+        <v>10.161556555362395</v>
       </c>
       <c r="H36" s="1">
-        <v>9.7558985760306527</v>
+        <v>10.087458465844257</v>
       </c>
       <c r="I36" s="1">
-        <v>9.8763804713300356</v>
+        <v>10.126036196085598</v>
       </c>
       <c r="J36" s="1">
-        <v>10.17</v>
+        <v>10.34</v>
       </c>
       <c r="K36" s="1">
-        <v>10.081102320930862</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10.218527279541409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14.45" customHeight="1">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1861,31 +1861,31 @@
         <v>15</v>
       </c>
       <c r="D37" s="1">
-        <v>10.887056605600801</v>
+        <v>13.570268856839524</v>
       </c>
       <c r="E37" s="1">
-        <v>10.780070126976687</v>
+        <v>13.636942858434761</v>
       </c>
       <c r="F37" s="1">
-        <v>10.821072536981942</v>
+        <v>13.63948876809701</v>
       </c>
       <c r="G37" s="1">
-        <v>10.791573061794862</v>
+        <v>13.403093096522998</v>
       </c>
       <c r="H37" s="1">
-        <v>10.710389167918306</v>
+        <v>13.332726478262281</v>
       </c>
       <c r="I37" s="1">
-        <v>10.81508599641095</v>
+        <v>13.421491762859016</v>
       </c>
       <c r="J37" s="1">
-        <v>11.15</v>
+        <v>13.93</v>
       </c>
       <c r="K37" s="1">
-        <v>11.033260962732511</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13.732679792582546</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14.45" customHeight="1">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1896,31 +1896,31 @@
         <v>13</v>
       </c>
       <c r="D38" s="1">
-        <v>11.935668289992945</v>
+        <v>16.9217140442105</v>
       </c>
       <c r="E38" s="1">
-        <v>12.372930822573814</v>
+        <v>17.172065950598707</v>
       </c>
       <c r="F38" s="1">
-        <v>12.425718274405121</v>
+        <v>17.167652152303102</v>
       </c>
       <c r="G38" s="1">
-        <v>12.336129658209947</v>
+        <v>17.173030578562447</v>
       </c>
       <c r="H38" s="1">
-        <v>12.106959612890769</v>
+        <v>17.030121613153401</v>
       </c>
       <c r="I38" s="1">
-        <v>12.402896405856325</v>
+        <v>16.926658138427108</v>
       </c>
       <c r="J38" s="1">
-        <v>12.82</v>
+        <v>17.36</v>
       </c>
       <c r="K38" s="1">
-        <v>12.299533795643981</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17.403889401178596</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="14.45" customHeight="1">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1931,31 +1931,31 @@
         <v>14</v>
       </c>
       <c r="D39" s="1">
-        <v>10.229104176178279</v>
+        <v>11.164630286763428</v>
       </c>
       <c r="E39" s="1">
-        <v>10.194308451821614</v>
+        <v>11.263066595964204</v>
       </c>
       <c r="F39" s="1">
-        <v>10.162756337013461</v>
+        <v>11.397099211954366</v>
       </c>
       <c r="G39" s="1">
-        <v>10.151394998807032</v>
+        <v>11.319974002673709</v>
       </c>
       <c r="H39" s="1">
-        <v>10.177883890338878</v>
+        <v>11.31322533121577</v>
       </c>
       <c r="I39" s="1">
-        <v>10.155994883056266</v>
+        <v>11.524108254716745</v>
       </c>
       <c r="J39" s="1">
-        <v>10.220000000000001</v>
+        <v>11.9</v>
       </c>
       <c r="K39" s="1">
-        <v>10.022205910097771</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11.651673276479972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.45" customHeight="1">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1966,31 +1966,31 @@
         <v>15</v>
       </c>
       <c r="D40" s="1">
-        <v>10.516958364050632</v>
+        <v>12.172119944316664</v>
       </c>
       <c r="E40" s="1">
-        <v>10.615645797108597</v>
+        <v>12.187953451472213</v>
       </c>
       <c r="F40" s="1">
-        <v>10.65649348698982</v>
+        <v>12.271425415037507</v>
       </c>
       <c r="G40" s="1">
-        <v>10.56801881757689</v>
+        <v>12.082090744325887</v>
       </c>
       <c r="H40" s="1">
-        <v>10.519491049540775</v>
+        <v>11.986392380231274</v>
       </c>
       <c r="I40" s="1">
-        <v>10.535471584684721</v>
+        <v>12.133268223120318</v>
       </c>
       <c r="J40" s="1">
-        <v>10.73</v>
+        <v>12.48</v>
       </c>
       <c r="K40" s="1">
-        <v>10.48356112829032</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>12.191557042449981</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="29.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2001,31 +2001,31 @@
         <v>13</v>
       </c>
       <c r="D41" s="1">
-        <v>12.665584266383558</v>
+        <v>19.656328828997857</v>
       </c>
       <c r="E41" s="1">
-        <v>12.270165616406258</v>
+        <v>19.700090022320602</v>
       </c>
       <c r="F41" s="1">
-        <v>12.333142558784552</v>
+        <v>19.914065049046616</v>
       </c>
       <c r="G41" s="1">
-        <v>12.376775884431396</v>
+        <v>19.286634342077825</v>
       </c>
       <c r="H41" s="1">
-        <v>12.106959612890769</v>
+        <v>18.778346486716057</v>
       </c>
       <c r="I41" s="1">
-        <v>12.283061657973654</v>
+        <v>18.794082959598715</v>
       </c>
       <c r="J41" s="1">
-        <v>12.71</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="K41" s="1">
-        <v>12.515487302031985</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18.895931808950252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="29.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2036,31 +2036,31 @@
         <v>14</v>
       </c>
       <c r="D42" s="1">
-        <v>9.0160043844305022</v>
+        <v>14.567478007683036</v>
       </c>
       <c r="E42" s="1">
-        <v>9.0947207458287593</v>
+        <v>14.63376535826006</v>
       </c>
       <c r="F42" s="1">
-        <v>9.2267129901832732</v>
+        <v>14.56524592430269</v>
       </c>
       <c r="G42" s="1">
-        <v>9.1860471260476029</v>
+        <v>14.236340734062715</v>
       </c>
       <c r="H42" s="1">
-        <v>9.1430151433448952</v>
+        <v>13.945609910948038</v>
       </c>
       <c r="I42" s="1">
-        <v>9.1274132970633506</v>
+        <v>14.030651731262589</v>
       </c>
       <c r="J42" s="1">
-        <v>9.4</v>
+        <v>13.99</v>
       </c>
       <c r="K42" s="1">
-        <v>9.4136096648224896</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>13.713047655638183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="29.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -2071,31 +2071,34 @@
         <v>15</v>
       </c>
       <c r="D43" s="1">
-        <v>9.1907729984958593</v>
+        <v>15.030100809620746</v>
       </c>
       <c r="E43" s="1">
-        <v>9.2796981169303603</v>
+        <v>15.116761827247577</v>
       </c>
       <c r="F43" s="1">
-        <v>9.4015782307999007</v>
+        <v>15.048696883654546</v>
       </c>
       <c r="G43" s="1">
-        <v>9.3587935874887656</v>
+        <v>14.805387901163009</v>
       </c>
       <c r="H43" s="1">
-        <v>9.2635823760043881</v>
+        <v>14.51830426608063</v>
       </c>
       <c r="I43" s="1">
-        <v>9.2172893579753516</v>
+        <v>14.589880554715048</v>
       </c>
       <c r="J43" s="1">
-        <v>9.5</v>
+        <v>14.53</v>
       </c>
       <c r="K43" s="1">
-        <v>9.5117703495443084</v>
+        <v>14.25293142160819</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K43">
+    <sortCondition ref="B2:B43"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
